--- a/scripts/Skill-Assesment.xlsx
+++ b/scripts/Skill-Assesment.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bharatkatyal/Desktop/Tutor-github/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bharatkatyal/Desktop/Tutor/TutorReporting/scripts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7721553B-E17E-7449-8A30-4054B28DFFC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEB6F2E0-611D-9849-A568-6B8DD15A9131}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1620" yWindow="6580" windowWidth="34560" windowHeight="20900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Form Responses 1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="26">
   <si>
     <t>Timestamp</t>
   </si>
@@ -92,6 +92,12 @@
   </si>
   <si>
     <t>bharat katyal</t>
+  </si>
+  <si>
+    <t>Writing</t>
+  </si>
+  <si>
+    <t>Q6</t>
   </si>
 </sst>
 </file>
@@ -397,20 +403,20 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:P106"/>
+  <dimension ref="A1:Q106"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
+      <selection pane="bottomLeft" activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="12.1640625" customWidth="1"/>
-    <col min="2" max="16" width="18.83203125" customWidth="1"/>
+    <col min="2" max="17" width="18.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -437,10 +443,13 @@
         <v>7</v>
       </c>
       <c r="J1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
         <v>19</v>
       </c>
@@ -460,17 +469,20 @@
         <v>11</v>
       </c>
       <c r="I2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="4"/>
       <c r="K2" s="4"/>
       <c r="L2" s="4"/>
       <c r="M2" s="4"/>
       <c r="N2" s="4"/>
       <c r="O2" s="4"/>
       <c r="P2" s="4"/>
-    </row>
-    <row r="3" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q2" s="4"/>
+    </row>
+    <row r="3" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">
         <v>12</v>
       </c>
@@ -492,15 +504,18 @@
       <c r="I3" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="J3" s="7"/>
+      <c r="J3" s="7" t="s">
+        <v>13</v>
+      </c>
       <c r="K3" s="7"/>
       <c r="L3" s="7"/>
       <c r="M3" s="7"/>
       <c r="N3" s="7"/>
       <c r="O3" s="7"/>
       <c r="P3" s="7"/>
-    </row>
-    <row r="4" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q3" s="7"/>
+    </row>
+    <row r="4" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="8">
         <v>45448.788760034724</v>
       </c>
@@ -523,11 +538,14 @@
         <v>14</v>
       </c>
       <c r="I4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J4" s="2"/>
-    </row>
-    <row r="5" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K4" s="2"/>
+    </row>
+    <row r="5" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="8">
         <v>45448.833809039352</v>
       </c>
@@ -550,11 +568,14 @@
         <v>15</v>
       </c>
       <c r="I5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="9"/>
-    </row>
-    <row r="6" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K5" s="9"/>
+    </row>
+    <row r="6" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="8">
         <v>45448.834617986111</v>
       </c>
@@ -577,38 +598,41 @@
         <v>16</v>
       </c>
       <c r="I6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J6" s="9"/>
-    </row>
-    <row r="7" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K6" s="9"/>
+    </row>
+    <row r="7" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1"/>
     </row>
-    <row r="8" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1"/>
     </row>
-    <row r="9" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1"/>
     </row>
-    <row r="10" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1"/>
     </row>
-    <row r="11" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1"/>
     </row>
-    <row r="12" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="1"/>
     </row>
-    <row r="13" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="1"/>
     </row>
-    <row r="14" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1"/>
     </row>
-    <row r="15" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="1"/>
     </row>
-    <row r="16" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="1"/>
     </row>
     <row r="17" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
